--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2228167.886325612</v>
+        <v>2332401.594719059</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12502432.03437992</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9479030.986661807</v>
+        <v>9487943.877913412</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>278.9501207840462</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>75.70103628687218</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>268.1967408714953</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>188.7158190292633</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>171.2647729291352</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.834206670628964</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>91.95187857709125</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.4010706814186</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>352.0823275123037</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>310.9299993360277</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>119.2085602918404</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>107.801581593452</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1534,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>117.4665281367395</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187858</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,10 +1660,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>71.60395572454127</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,10 +1903,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>133.3133845470782</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>12.96996784159906</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>60.11729550773727</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>270.209843136045</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>131.9527903262032</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428269</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>140.4383865840206</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>8.616048582070279</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>174.9740119554616</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3202,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>77.39507264402586</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>65.67353929277157</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824324</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>70.0455488112438</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.03048557918976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>140.7215037338438</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>23.6255456814127</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -4034,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701339</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.1980648094029</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1540.864437266279</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="C2" t="n">
-        <v>1171.901920325867</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="D2" t="n">
-        <v>1171.901920325867</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E2" t="n">
-        <v>786.1136677276232</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>3043.838022837407</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2691.069367567292</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="X2" t="n">
-        <v>2317.603609306213</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="Y2" t="n">
-        <v>1927.464277330401</v>
+        <v>1567.784838233996</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>777.020896318616</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C4" t="n">
-        <v>608.0847133907091</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D4" t="n">
-        <v>457.9680739783734</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658018</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>945.9330925689973</v>
       </c>
       <c r="V4" t="n">
-        <v>1416.425065783662</v>
+        <v>691.2486043631104</v>
       </c>
       <c r="W4" t="n">
-        <v>1225.803026360164</v>
+        <v>401.8314343261497</v>
       </c>
       <c r="X4" t="n">
-        <v>997.8134754621461</v>
+        <v>401.8314343261497</v>
       </c>
       <c r="Y4" t="n">
-        <v>777.020896318616</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.138951213862</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.17643427345</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>933.9107356666996</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>548.1224830684553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4583,7 +4585,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4601,16 +4603,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189673</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213862</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>793.5839474470786</v>
+        <v>402.9356658273856</v>
       </c>
       <c r="C7" t="n">
-        <v>624.6477645191717</v>
+        <v>402.9356658273856</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>402.9356658273856</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4723,16 +4725,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036486</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="W7" t="n">
-        <v>1014.376526590609</v>
+        <v>812.5736815556427</v>
       </c>
       <c r="X7" t="n">
-        <v>1014.376526590609</v>
+        <v>584.5841306576253</v>
       </c>
       <c r="Y7" t="n">
-        <v>793.5839474470786</v>
+        <v>584.5841306576253</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1896.503151925172</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C8" t="n">
-        <v>1527.54063498476</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>1546.221676928586</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250373</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2283.102991989294</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
-        <v>2283.102991989294</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>482.8906159540807</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="C10" t="n">
-        <v>313.9544330261738</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4960,16 +4962,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1014.496037204541</v>
       </c>
       <c r="W10" t="n">
-        <v>812.5736815556431</v>
+        <v>1014.496037204541</v>
       </c>
       <c r="X10" t="n">
-        <v>703.6831950976108</v>
+        <v>786.5064863065235</v>
       </c>
       <c r="Y10" t="n">
-        <v>482.8906159540807</v>
+        <v>786.5064863065235</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5038,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,7 +5056,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5115,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V13" t="n">
-        <v>1569.732795130727</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.315625093766</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349513</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2102.574735228845</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P15" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2307.590151828076</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2307.590151828076</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U16" t="n">
-        <v>2018.514925172274</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,7 +5551,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.119922845744</v>
+        <v>3807.864035926977</v>
       </c>
       <c r="N18" t="n">
-        <v>1652.717886400351</v>
+        <v>4435.461999481584</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>917.5010142286973</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>917.5010142286973</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>767.3843748163615</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>619.4712812339684</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y19" t="n">
-        <v>1099.149479058937</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797136</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192544</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>3060.83890577277</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M21" t="n">
-        <v>3060.83890577277</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>3445.398957336244</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>3997.308687575531</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>4420.931837070599</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>530.3315352860773</v>
+        <v>3342.53722908186</v>
       </c>
       <c r="C22" t="n">
-        <v>530.3315352860773</v>
+        <v>3173.601046153953</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>3023.484406741617</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4630.108611481688</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4447.253777136592</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4227.652312159534</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>4227.652312159534</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>3972.967823953647</v>
       </c>
       <c r="W22" t="n">
-        <v>1160.762130157864</v>
+        <v>3972.967823953647</v>
       </c>
       <c r="X22" t="n">
-        <v>932.7725792598471</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y22" t="n">
-        <v>711.980000116317</v>
+        <v>3524.185693912099</v>
       </c>
     </row>
     <row r="23">
@@ -5969,67 +5971,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>3060.838905772771</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>3658.217393399323</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>4285.81535695393</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>4654.193497445482</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>4654.193497445482</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445482</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3158.973599365703</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>3158.973599365703</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>3008.856959953368</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4440.9326143059</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>4151.857387650098</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>3897.172899444211</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>3607.75572940725</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>3379.766178509233</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>3158.973599365703</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>3060.83890577277</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3658.217393399322</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>3658.217393399322</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>3997.308687575531</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>4420.931837070599</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>782.8410298377091</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>2421.591387345378</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X28" t="n">
-        <v>1185.282073811479</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.4894946679489</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="29">
@@ -6449,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>1522.21291626627</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2074.122646505557</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>809.0422355233313</v>
+        <v>2977.325134535463</v>
       </c>
       <c r="C31" t="n">
-        <v>640.1060525954244</v>
+        <v>2808.388951607556</v>
       </c>
       <c r="D31" t="n">
-        <v>489.9894131830887</v>
+        <v>2808.388951607556</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>2660.475858025163</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>2513.585910527253</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>2346.389811242133</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U31" t="n">
-        <v>1983.574488637966</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V31" t="n">
-        <v>1728.890000432079</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W31" t="n">
-        <v>1439.472830395119</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.483279497101</v>
+        <v>3379.766178509233</v>
       </c>
       <c r="Y31" t="n">
-        <v>990.6907003535711</v>
+        <v>3158.973599365703</v>
       </c>
     </row>
     <row r="32">
@@ -6686,37 +6688,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>3060.83890577277</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3278.063798229818</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3905.661761784424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>633.992644467967</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>486.0795508855739</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>339.1896033876635</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>171.9935041025435</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>171.9935041025435</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2380.626175203724</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2380.626175203724</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2091.550948547922</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.866460342035</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W34" t="n">
-        <v>1547.449290305074</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X34" t="n">
-        <v>1319.459739407057</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y34" t="n">
-        <v>1098.667160263527</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,13 +6949,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>1804.131916132773</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3266.400361191265</v>
+        <v>2824.769373306003</v>
       </c>
       <c r="C37" t="n">
-        <v>3097.464178263358</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="D37" t="n">
-        <v>2947.347538851023</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="E37" t="n">
-        <v>2799.43444526863</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F37" t="n">
         <v>2728.681365661313</v>
@@ -7117,28 +7119,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T37" t="n">
-        <v>4440.9326143059</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U37" t="n">
-        <v>4440.9326143059</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V37" t="n">
-        <v>4186.248126100013</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W37" t="n">
-        <v>3896.830956063052</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X37" t="n">
-        <v>3668.841405165035</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y37" t="n">
-        <v>3448.048826021505</v>
+        <v>3006.417838136243</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7165,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,52 +7308,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
@@ -7369,13 +7371,13 @@
         <v>1871.240688199802</v>
       </c>
       <c r="W40" t="n">
-        <v>1581.823518162841</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1353.833967264824</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.041388121294</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7488,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,19 +7548,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>489.9894131830887</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7637,10 +7639,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7649,7 +7651,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>2715.159942084666</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>3210.485548300425</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>3807.864035926977</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>3807.864035926977</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>4033.948342528643</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>538.7363435406111</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8061,13 +8063,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>162.0073097921338</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23422,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>109.4223302771033</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>12.107663475853</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>212.7396875474381</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.25795120238439</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>16.31315520054596</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>14.48117232036597</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194117</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>85.27126880501658</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>131.6786642641536</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>111.2104624337825</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3.87076367453966</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.352746708873</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>72.11969353038459</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>75.37549921168744</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>145.8014946027475</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>145.8014946027472</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>143.6212754172151</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.63391537253443</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>830190.9293394684</v>
+        <v>839103.8205910745</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>816295.759165191</v>
+        <v>816295.7591651911</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>816295.759165191</v>
+        <v>816295.7591651911</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>816295.759165191</v>
+        <v>816295.7591651911</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="G2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="H2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="H2" t="n">
-        <v>605359.9497675044</v>
-      </c>
       <c r="I2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="K2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="L2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>605359.9497675045</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.100233243458205e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>49110.09270605448</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89134.1790931202</v>
+        <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.1790931202</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.1790931202</v>
+        <v>89134.17909312023</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768932</v>
+        <v>9947.144321768841</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26436,13 +26438,13 @@
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768896</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768959</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
@@ -26457,7 +26459,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768943</v>
+        <v>9947.144321768897</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-910031.5379838934</v>
+        <v>-729838.6390247734</v>
       </c>
       <c r="C6" t="n">
-        <v>418713.207743699</v>
+        <v>215274.4661315932</v>
       </c>
       <c r="D6" t="n">
         <v>418713.2077436987</v>
       </c>
       <c r="E6" t="n">
-        <v>168877.8138144732</v>
+        <v>168877.8138144728</v>
       </c>
       <c r="F6" t="n">
-        <v>494290.2756218281</v>
+        <v>494290.2756218278</v>
       </c>
       <c r="G6" t="n">
         <v>494290.2756218287</v>
       </c>
       <c r="H6" t="n">
-        <v>494290.2756218283</v>
+        <v>494290.2756218284</v>
       </c>
       <c r="I6" t="n">
-        <v>494290.2756218283</v>
+        <v>494290.2756218282</v>
       </c>
       <c r="J6" t="n">
-        <v>276759.0732245509</v>
+        <v>326685.0978118459</v>
       </c>
       <c r="K6" t="n">
+        <v>445180.182915774</v>
+      </c>
+      <c r="L6" t="n">
         <v>494290.2756218282</v>
       </c>
-      <c r="L6" t="n">
-        <v>494290.2756218284</v>
-      </c>
       <c r="M6" t="n">
-        <v>409235.2476863163</v>
+        <v>409235.2476863166</v>
       </c>
       <c r="N6" t="n">
         <v>494290.2756218282</v>
       </c>
       <c r="O6" t="n">
-        <v>494290.2756218284</v>
+        <v>494290.2756218283</v>
       </c>
       <c r="P6" t="n">
-        <v>494290.275621828</v>
+        <v>494290.2756218282</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
@@ -26805,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27021,7 +27023,7 @@
         <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27267,7 +27269,7 @@
         <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>48.80213768608871</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>273.5399324305408</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>18.0304132497053</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>97.80717930732766</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>235.6112728125762</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>346.406762046784</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>54.48208406947792</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27825,22 +27827,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.1219276551724</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>2.600714108379236</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>71.00037073623406</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>132.9290830319875</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>117.9080737955851</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,16 +31849,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32072,10 +32074,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
@@ -32084,22 +32086,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>172.8142548092788</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>624.1318526922785</v>
+        <v>363.5371514786837</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>519.7862086120942</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>514.6953762540926</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>485.1127032082914</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>382.1329742631541</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>361.5531172119649</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>491.1355220041054</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>198.5607970756955</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>189.0011860883002</v>
+        <v>342.4905264542646</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,16 +34210,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>314.105962234273</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>597.1709559744729</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,13 +34228,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,7 +34462,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>370.9642309107742</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34469,7 +34471,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>553.2044093850077</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,16 +35497,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35720,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,22 +35734,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>27.13475084531481</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>481.5356082478341</v>
+        <v>220.9409070342392</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>388.4444965287609</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>372.0991318096482</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>342.516458763847</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>248.1585668488238</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>219.4190832899467</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>349.0014880820871</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>55.96455263125101</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>57.65947400496688</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37798,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>176.264523259914</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>455.0369220524547</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,13 +37876,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,7 +38110,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>228.3679864663297</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38117,7 +38119,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2332401.594719059</v>
+        <v>2328347.46895968</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>179.4336257791589</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>75.70103628687218</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -822,10 +822,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>67.5136381260009</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -873,19 +873,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>268.1967408714953</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>184.4530101301292</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>2.834206670628964</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>91.95187857709125</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>77.31354443380459</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>310.9299993360277</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>283.0182888774787</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292598</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>27.63355479238407</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>119.2085602918404</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>129.1078928223857</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1773,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>80.33989744909005</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>12.96996784159906</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2247,13 +2247,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>60.11729550773727</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>95.81917536083746</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8253826161913524</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>8.616048582070279</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>77.39507264402586</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>264.3714636682827</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>95.12712756824324</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>89.67992556049165</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>140.7215037338438</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3903,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>31.26260713376563</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484859</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1567.784838233996</v>
+        <v>2172.199996424343</v>
       </c>
       <c r="C2" t="n">
-        <v>1567.784838233996</v>
+        <v>1803.237479483932</v>
       </c>
       <c r="D2" t="n">
-        <v>1567.784838233996</v>
+        <v>1444.971780877181</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>1059.183528278937</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>648.1976234893293</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>232.4928732136182</v>
       </c>
       <c r="H2" t="n">
         <v>51.2467865680031</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>1567.784838233996</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X2" t="n">
-        <v>1567.784838233996</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y2" t="n">
-        <v>1567.784838233996</v>
+        <v>2172.199996424343</v>
       </c>
     </row>
     <row r="3">
@@ -4412,25 +4412,25 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100997</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.18296949591</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C4" t="n">
-        <v>51.2467865680031</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D4" t="n">
-        <v>51.2467865680031</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
         <v>51.2467865680031</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1568.250526007829</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1371.621778167691</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="U4" t="n">
-        <v>945.9330925689973</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="V4" t="n">
-        <v>691.2486043631104</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="W4" t="n">
-        <v>401.8314343261497</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X4" t="n">
-        <v>401.8314343261497</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y4" t="n">
-        <v>401.8314343261497</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4567,10 +4567,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4585,7 +4585,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3028.99898128765</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3028.99898128765</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2697.936093944079</v>
       </c>
       <c r="W5" t="n">
-        <v>2752.944093773487</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X5" t="n">
-        <v>2752.944093773487</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y5" t="n">
-        <v>2362.804761797675</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>402.9356658273856</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C7" t="n">
-        <v>402.9356658273856</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D7" t="n">
-        <v>402.9356658273856</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.67533979849</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592603</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>812.5736815556427</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>584.5841306576253</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y7" t="n">
-        <v>584.5841306576253</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1904.487375535337</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="C8" t="n">
-        <v>1904.487375535337</v>
+        <v>1145.385526619114</v>
       </c>
       <c r="D8" t="n">
-        <v>1546.221676928586</v>
+        <v>787.1198280123631</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>401.3315754141188</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>394.3860746649154</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,10 +4804,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,7 +4816,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4849,7 +4849,7 @@
         <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
-        <v>1904.487375535337</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228005</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>604.8580214762837</v>
+        <v>561.3907139632879</v>
       </c>
       <c r="C10" t="n">
-        <v>604.8580214762837</v>
+        <v>392.454531035381</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>242.3378916230453</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>94.42479804065218</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="V10" t="n">
-        <v>1014.496037204541</v>
+        <v>1191.821308835075</v>
       </c>
       <c r="W10" t="n">
-        <v>1014.496037204541</v>
+        <v>1191.821308835075</v>
       </c>
       <c r="X10" t="n">
-        <v>786.5064863065235</v>
+        <v>963.8317579370578</v>
       </c>
       <c r="Y10" t="n">
-        <v>786.5064863065235</v>
+        <v>743.0391787935276</v>
       </c>
     </row>
     <row r="11">
@@ -5038,16 +5038,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5059,10 +5059,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5117,13 +5117,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5135,7 +5135,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803938</v>
@@ -5372,7 +5372,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,10 +5527,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>4435.461999481584</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1198.22892174168</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,10 +5746,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111716</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5776,16 +5776,16 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5837,22 +5837,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.53722908186</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153953</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741617</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159224</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661314</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4630.108611481688</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4447.253777136592</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4227.652312159534</v>
+        <v>2100.27549966854</v>
       </c>
       <c r="U22" t="n">
-        <v>4227.652312159534</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V22" t="n">
-        <v>3972.967823953647</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W22" t="n">
-        <v>3972.967823953647</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912099</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6007,22 +6007,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385792</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>3060.838905772771</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3658.217393399323</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>4285.81535695393</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474266</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,28 +6214,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6244,7 +6244,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6265,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6320,13 +6320,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558405</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>2588.787486630498</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>2588.787486630498</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2588.787486630498</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2588.787486630498</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2421.591387345378</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2977.325134535463</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>2808.388951607556</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>2808.388951607556</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>2660.475858025163</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2513.585910527253</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2346.389811242133</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4440.9326143059</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>4151.857387650098</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>3897.172899444211</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3607.75572940725</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3379.766178509233</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>3158.973599365703</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.9288273958739</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C34" t="n">
-        <v>633.992644467967</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D34" t="n">
-        <v>633.992644467967</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E34" t="n">
-        <v>486.0795508855739</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>339.1896033876635</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>171.9935041025435</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>171.9935041025435</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510509</v>
+        <v>1777.464901764891</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304622</v>
+        <v>1522.780413559004</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1233.363243522043</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369644</v>
+        <v>1005.373692624026</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261136</v>
+        <v>784.5811134804959</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,13 +6949,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2824.769373306003</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C37" t="n">
-        <v>2728.681365661313</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D37" t="n">
-        <v>2728.681365661313</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661313</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>2106.476762093131</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420637</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.61713821475</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.19996817779</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X37" t="n">
-        <v>3227.210417279773</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y37" t="n">
-        <v>3006.417838136243</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="38">
@@ -7156,46 +7156,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,19 +7393,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192599</v>
@@ -7414,19 +7414,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>317.6151975578602</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
   </sheetData>
@@ -8060,28 +8060,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>162.0073097921338</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>16.31315520054551</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>66.09406519747913</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>212.7396875474381</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24135,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.25795120238439</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>145.6085800303778</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194117</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.6786642641536</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>3.87076367453966</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>21.81301072096142</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>72.11969353038459</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>145.8014946027472</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>180.5487903941886</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>816295.759165191</v>
+        <v>816295.7591651911</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>816295.759165191</v>
+        <v>816295.7591651911</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982123</v>
@@ -26325,37 +26325,37 @@
         <v>605359.9497675041</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="G2" t="n">
-        <v>605359.9497675046</v>
-      </c>
       <c r="H2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="I2" t="n">
         <v>605359.9497675045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675042</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="K2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675045</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121058</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
-        <v>3.100233243458205e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312023</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768841</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26444,7 +26444,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729838.6390247734</v>
+        <v>-729838.6390247733</v>
       </c>
       <c r="C6" t="n">
-        <v>215274.4661315932</v>
+        <v>215274.4661315926</v>
       </c>
       <c r="D6" t="n">
-        <v>418713.2077436987</v>
+        <v>418713.207743699</v>
       </c>
       <c r="E6" t="n">
-        <v>168877.8138144728</v>
+        <v>168530.4345601157</v>
       </c>
       <c r="F6" t="n">
-        <v>494290.2756218278</v>
+        <v>493942.8963674715</v>
       </c>
       <c r="G6" t="n">
-        <v>494290.2756218287</v>
+        <v>493942.8963674711</v>
       </c>
       <c r="H6" t="n">
-        <v>494290.2756218284</v>
+        <v>493942.8963674713</v>
       </c>
       <c r="I6" t="n">
-        <v>494290.2756218282</v>
+        <v>493942.8963674716</v>
       </c>
       <c r="J6" t="n">
-        <v>326685.0978118459</v>
+        <v>326337.7185574888</v>
       </c>
       <c r="K6" t="n">
-        <v>445180.182915774</v>
+        <v>444832.8036614167</v>
       </c>
       <c r="L6" t="n">
-        <v>494290.2756218282</v>
+        <v>493942.8963674711</v>
       </c>
       <c r="M6" t="n">
-        <v>409235.2476863166</v>
+        <v>408887.8684319594</v>
       </c>
       <c r="N6" t="n">
-        <v>494290.2756218282</v>
+        <v>493942.8963674715</v>
       </c>
       <c r="O6" t="n">
-        <v>494290.2756218283</v>
+        <v>493942.8963674711</v>
       </c>
       <c r="P6" t="n">
-        <v>494290.2756218282</v>
+        <v>493942.8963674714</v>
       </c>
     </row>
   </sheetData>
@@ -26801,16 +26801,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26962,16 +26962,16 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27023,7 +27023,7 @@
         <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>190.8166233022539</v>
@@ -27269,7 +27269,7 @@
         <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>121.5849267832465</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>273.5399324305408</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>34.04393429357273</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>18.0304132497053</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>19.46496000949097</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>346.406762046784</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>54.48208406947792</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>19.03887597603349</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,22 +27855,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>71.00037073623406</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>127.9034367759748</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>117.7874932305472</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>132.9290830319875</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>363.5371514786837</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32557,25 +32557,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>514.6953762540926</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>491.1355220041054</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>342.4905264542646</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>314.105962234273</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34780,28 +34780,28 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>553.2044093850077</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>220.9409070342392</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193518</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>101.8925903961643</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>372.0991318096482</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>349.0014880820871</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>211.1488143709312</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>176.264523259914</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>471.5003028244908</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2328347.46895968</v>
+        <v>2330107.999262465</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283177</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>266.7331670745513</v>
       </c>
       <c r="H2" t="n">
-        <v>179.4336257791589</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>83.20206049307397</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>67.5136381260009</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>184.4530101301287</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>184.4530101301292</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>77.31354443380459</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>283.0182888774787</v>
+        <v>26.28051149992594</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>27.63355479238407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634788</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>129.1078928223857</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428081</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>80.33989744909005</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>27.02919805176874</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>95.81917536083746</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>104.4262124629369</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>264.3714636682827</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>23.05950344416363</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>89.67992556049165</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417092</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>186.0007748420832</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>31.26260713376563</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458224</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>45.16086499484859</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2172.199996424343</v>
+        <v>1844.676600992463</v>
       </c>
       <c r="C2" t="n">
-        <v>1803.237479483932</v>
+        <v>1475.714084052051</v>
       </c>
       <c r="D2" t="n">
-        <v>1444.971780877181</v>
+        <v>1117.448385445301</v>
       </c>
       <c r="E2" t="n">
-        <v>1059.183528278937</v>
+        <v>731.6601328470565</v>
       </c>
       <c r="F2" t="n">
-        <v>648.1976234893293</v>
+        <v>320.6742280574489</v>
       </c>
       <c r="G2" t="n">
-        <v>232.4928732136182</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4366,16 +4366,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="Y2" t="n">
-        <v>2172.199996424343</v>
+        <v>2231.276441056585</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.2127024906389</v>
+        <v>1675.038343660747</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2765195627319</v>
+        <v>1506.10216073284</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>1355.985521320505</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>1208.072427738111</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>1061.182480240201</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1568.250526007829</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1371.621778167691</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1148.643297362426</v>
+        <v>2339.360847594891</v>
       </c>
       <c r="U4" t="n">
-        <v>1148.643297362426</v>
+        <v>2339.360847594891</v>
       </c>
       <c r="V4" t="n">
-        <v>1148.643297362426</v>
+        <v>2084.676359389004</v>
       </c>
       <c r="W4" t="n">
-        <v>1148.643297362426</v>
+        <v>2084.676359389004</v>
       </c>
       <c r="X4" t="n">
-        <v>920.6537464644088</v>
+        <v>1856.686808490987</v>
       </c>
       <c r="Y4" t="n">
-        <v>699.8611673208786</v>
+        <v>1856.686808490987</v>
       </c>
     </row>
     <row r="5">
@@ -4564,10 +4564,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4585,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3028.99898128765</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3028.99898128765</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.936093944079</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2345.167438673965</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.167438673965</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>2531.48361052258</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4670,16 +4670,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4691,7 +4691,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>463.6594280995014</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>294.7232451715945</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>144.6066057592588</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>144.6066057592588</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>144.6066057592588</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>144.6066057592588</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>144.6066057592588</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732712</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>645.3078929297411</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1514.348043559525</v>
+        <v>1659.057359339775</v>
       </c>
       <c r="C8" t="n">
-        <v>1145.385526619114</v>
+        <v>1290.094842399363</v>
       </c>
       <c r="D8" t="n">
-        <v>787.1198280123631</v>
+        <v>931.829143792613</v>
       </c>
       <c r="E8" t="n">
-        <v>401.3315754141188</v>
+        <v>546.0408911943687</v>
       </c>
       <c r="F8" t="n">
-        <v>394.3860746649154</v>
+        <v>135.0549864047611</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535337</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559525</v>
+        <v>2045.657199403897</v>
       </c>
     </row>
     <row r="9">
@@ -4877,19 +4877,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>561.3907139632879</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>392.454531035381</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>242.3378916230453</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>94.42479804065218</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040962</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V10" t="n">
-        <v>1191.821308835075</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W10" t="n">
-        <v>1191.821308835075</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>963.8317579370578</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>743.0391787935276</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5032,61 +5032,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E13" t="n">
-        <v>365.9405071576786</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270434</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,10 +5290,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,13 +5354,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958739</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>633.992644467967</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556313</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369644</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261136</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5506,31 +5506,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,31 +5749,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400789</v>
       </c>
       <c r="C22" t="n">
-        <v>467.7318369701959</v>
+        <v>344.9174178121721</v>
       </c>
       <c r="D22" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121721</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121721</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121721</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.741944003842</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797822</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910817</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570825</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.08939327981</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853369</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580268</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832671</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487575</v>
       </c>
       <c r="T22" t="n">
-        <v>2100.27549966854</v>
+        <v>1977.461080510516</v>
       </c>
       <c r="U22" t="n">
-        <v>1811.200273012738</v>
+        <v>1688.385853854714</v>
       </c>
       <c r="V22" t="n">
-        <v>1556.515784806851</v>
+        <v>1433.701365648827</v>
       </c>
       <c r="W22" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611866</v>
       </c>
       <c r="X22" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138488</v>
       </c>
       <c r="Y22" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703187</v>
       </c>
     </row>
     <row r="23">
@@ -5968,16 +5968,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,19 +6010,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6165,34 +6165,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853369</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580268</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580268</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580268</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,10 +6472,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6691,43 +6691,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>784.5811134804959</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>615.644930552589</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>465.5282911402533</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1777.464901764891</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1522.780413559004</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1233.363243522043</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>1005.373692624026</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>784.5811134804959</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6928,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>642.8692823226941</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>473.9330993947872</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D37" t="n">
-        <v>323.8164599824514</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E37" t="n">
-        <v>175.9033664000583</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2106.476762093131</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1817.401535437329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1273.299877194481</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1045.310326296464</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>824.5177471529338</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075805</v>
@@ -7192,34 +7192,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>198.027470314254</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="41">
@@ -7405,28 +7405,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429803</v>
@@ -7848,10 +7848,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1098.667160263527</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515147</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154991</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>16.31315520054551</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194308</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>66.09406519747913</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>112.9792378643513</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>21.81301072096142</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>125.5559695740487</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>39.70888054695391</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>114.1584408891656</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>180.5487903941886</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.7591651912</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.7591651912</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>816295.759165191</v>
+        <v>816295.7591651911</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="F2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>605359.9497675047</v>
+      </c>
+      <c r="I2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.9497675039</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="N2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="O2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="I2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26374,37 +26374,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.363529348016606e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.339677442988552e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605448</v>
+        <v>49110.09270605436</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312023</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768981</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
@@ -26435,13 +26435,13 @@
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321769005</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321769005</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768857</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
@@ -26453,7 +26453,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321769001</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729838.6390247733</v>
+        <v>-729838.6390247736</v>
       </c>
       <c r="C6" t="n">
-        <v>215274.4661315926</v>
+        <v>215274.4661315929</v>
       </c>
       <c r="D6" t="n">
-        <v>418713.207743699</v>
+        <v>418713.2077436988</v>
       </c>
       <c r="E6" t="n">
-        <v>168530.4345601157</v>
+        <v>168843.0758890379</v>
       </c>
       <c r="F6" t="n">
-        <v>493942.8963674715</v>
+        <v>494255.5376963919</v>
       </c>
       <c r="G6" t="n">
-        <v>493942.8963674711</v>
+        <v>494255.5376963927</v>
       </c>
       <c r="H6" t="n">
-        <v>493942.8963674713</v>
+        <v>494255.5376963929</v>
       </c>
       <c r="I6" t="n">
-        <v>493942.8963674716</v>
+        <v>494255.5376963923</v>
       </c>
       <c r="J6" t="n">
-        <v>326337.7185574888</v>
+        <v>326650.3598864098</v>
       </c>
       <c r="K6" t="n">
-        <v>444832.8036614167</v>
+        <v>445145.4449903378</v>
       </c>
       <c r="L6" t="n">
-        <v>493942.8963674711</v>
+        <v>494255.5376963923</v>
       </c>
       <c r="M6" t="n">
-        <v>408887.8684319594</v>
+        <v>409200.5097608807</v>
       </c>
       <c r="N6" t="n">
-        <v>493942.8963674715</v>
+        <v>494255.5376963925</v>
       </c>
       <c r="O6" t="n">
-        <v>493942.8963674711</v>
+        <v>494255.5376963924</v>
       </c>
       <c r="P6" t="n">
-        <v>493942.8963674714</v>
+        <v>494255.5376963925</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.674596803735691e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26703,19 +26703,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.674596803735691e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.674596803735691e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.674596803735691e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.674596803735691e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.674596803735691e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.674596803735691e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.674596803735691e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.674596803735691e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>144.8145356984027</v>
       </c>
       <c r="H2" t="n">
-        <v>121.5849267832465</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -27438,7 +27438,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>83.10453955173021</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551289</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>34.04393429357273</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>198.2808315333519</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>19.46496000949097</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>19.03887597603349</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>127.9034367759748</v>
+        <v>384.6412141535275</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>117.7874932305472</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>94.0442761581327</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.734053541473041e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.674596803735691e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.674596803735691e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28985,7 +28985,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>7.795929066763286e-12</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29237,7 +29237,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>7.795929066763286e-12</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,22 +33973,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34374,7 +34374,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34795,10 +34795,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096428</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36533,7 +36533,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066327</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38022,7 +38022,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
